--- a/medicine/Handicap/Tourisme_et_handicap/Tourisme_et_handicap.xlsx
+++ b/medicine/Handicap/Tourisme_et_handicap/Tourisme_et_handicap.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le tourisme adapté au handicap est un segment du tourisme en développement depuis les années 1990.
 </t>
@@ -511,9 +523,11 @@
           <t>Personnes concernées</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le handicap affecte 80 millions de personnes en Europe[1] et 650 millions dans le monde entier[2], sans compter les seniors ni les personnes ayant une incapacité provisoire (invalidité temporaire : maladie, blessure). 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le handicap affecte 80 millions de personnes en Europe et 650 millions dans le monde entier, sans compter les seniors ni les personnes ayant une incapacité provisoire (invalidité temporaire : maladie, blessure). 
 La population des personnes handicapées amène l'économie liée au tourisme à proposer des services spécifiques qui ne sont généralement pas proposés par les organismes et agences de tourisme traditionnels.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Exigences spécifiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les touristes handicapés ont des besoins spécifiques :
 des aménagements aéroportuaires adaptés
@@ -584,17 +600,134 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">En France
-Label
-L'État français a mis en place dès 2001, avec effet en 2003, un label national "Tourisme &amp; Handicap" (déposé à l'INPI) délivré aux professionnels du tourisme offrant un équipement adapté à une où plusieurs familles de handicap [3].
-Travail associatif
-En France, l'association « Tourisme et Handicaps (ATH) » - à distinguer du label précédemment cité - est une structure de coordination entre les professionnels du tourisme et les associations d'usagers handicapés[4]. L'association est chargée de la gestion nationale du label « Tourisme &amp; Handicap » créé en 2001 et « Destination pour tous » créé en 2011. 
-Le label Tourisme &amp; Handicap [5] est accordé à des établissements d'hébergement touristique adaptés à l'accueil de personnes pouvant être atteintes de handicaps auditifs, physique, mental ou visuel.
-L'association « Tourisme et Handicaps (ATH) » en collaboration avec le Ministère du tourisme, les professionnels et les associations concernées a mis au point en 2011, un label complémentaire au label « Tourisme &amp; Handicap », le label « Destination pour tous », il labellise les territoires proposant une offre de tourisme accessible aux personnes en situation de handicap[6].
-Au Maroc
-Le Ministère du tourisme a défini des normes d'accessibilité aux personnes handicapées[7].
-Au Québec
-« Kéroul » est un organisme sans but lucratif qui informe, représente, développe et fait la promotion du tourisme et de la culture accessibles pour les personnes pouvant être atteintes de handicaps auditif, physique, ou visuel[8].
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Label</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'État français a mis en place dès 2001, avec effet en 2003, un label national "Tourisme &amp; Handicap" (déposé à l'INPI) délivré aux professionnels du tourisme offrant un équipement adapté à une où plusieurs familles de handicap .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tourisme_et_handicap</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tourisme_et_handicap</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Dans le monde</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Travail associatif</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, l'association « Tourisme et Handicaps (ATH) » - à distinguer du label précédemment cité - est une structure de coordination entre les professionnels du tourisme et les associations d'usagers handicapés. L'association est chargée de la gestion nationale du label « Tourisme &amp; Handicap » créé en 2001 et « Destination pour tous » créé en 2011. 
+Le label Tourisme &amp; Handicap  est accordé à des établissements d'hébergement touristique adaptés à l'accueil de personnes pouvant être atteintes de handicaps auditifs, physique, mental ou visuel.
+L'association « Tourisme et Handicaps (ATH) » en collaboration avec le Ministère du tourisme, les professionnels et les associations concernées a mis au point en 2011, un label complémentaire au label « Tourisme &amp; Handicap », le label « Destination pour tous », il labellise les territoires proposant une offre de tourisme accessible aux personnes en situation de handicap.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Tourisme_et_handicap</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tourisme_et_handicap</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Dans le monde</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Au Maroc</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Ministère du tourisme a défini des normes d'accessibilité aux personnes handicapées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tourisme_et_handicap</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tourisme_et_handicap</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Dans le monde</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Au Québec</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">« Kéroul » est un organisme sans but lucratif qui informe, représente, développe et fait la promotion du tourisme et de la culture accessibles pour les personnes pouvant être atteintes de handicaps auditif, physique, ou visuel.
 </t>
         </is>
       </c>
